--- a/data/trans_orig/P14B35-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P14B35-Dificultad-trans_orig.xlsx
@@ -1117,19 +1117,19 @@
         <v>25846</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16913</v>
+        <v>16641</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38087</v>
+        <v>37664</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02310440642615905</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01511933903966559</v>
+        <v>0.0148756295208918</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03404684193397507</v>
+        <v>0.03366925481484016</v>
       </c>
     </row>
     <row r="5">
@@ -1146,19 +1146,19 @@
         <v>1092807</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1080566</v>
+        <v>1080989</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1101740</v>
+        <v>1102012</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9768955935738409</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9659531580660251</v>
+        <v>0.9663307451851599</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9848806609603344</v>
+        <v>0.9851243704791083</v>
       </c>
     </row>
     <row r="6">
@@ -1208,19 +1208,19 @@
         <v>8988</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4928</v>
+        <v>4899</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16053</v>
+        <v>16669</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008235447717424873</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004515544832628632</v>
+        <v>0.004488661712086829</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01470933816635592</v>
+        <v>0.01527403645511704</v>
       </c>
     </row>
     <row r="8">
@@ -1237,19 +1237,19 @@
         <v>1082341</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1075276</v>
+        <v>1074660</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1086401</v>
+        <v>1086430</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9917645522825751</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9852906618336441</v>
+        <v>0.984725963544883</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9954844551673714</v>
+        <v>0.9955113382879132</v>
       </c>
     </row>
     <row r="9">
@@ -1299,19 +1299,19 @@
         <v>6861</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2845</v>
+        <v>2919</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12795</v>
+        <v>12991</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00783452756931418</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003248051293125512</v>
+        <v>0.00333267001518557</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01461009093818995</v>
+        <v>0.01483341093760131</v>
       </c>
     </row>
     <row r="11">
@@ -1328,19 +1328,19 @@
         <v>868935</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>863001</v>
+        <v>862805</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>872951</v>
+        <v>872877</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9921654724306859</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.98538990906181</v>
+        <v>0.9851665890623985</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9967519487068744</v>
+        <v>0.9966673299848143</v>
       </c>
     </row>
     <row r="12">
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7057</v>
+        <v>7290</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.004442520009496072</v>
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01558793345250201</v>
+        <v>0.01610298270673557</v>
       </c>
     </row>
     <row r="14">
@@ -1419,7 +1419,7 @@
         <v>450725</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>445679</v>
+        <v>445446</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>452736</v>
@@ -1428,7 +1428,7 @@
         <v>0.9955574799905039</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.984412066547498</v>
+        <v>0.9838970172932652</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1481,19 +1481,19 @@
         <v>43706</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>32858</v>
+        <v>31950</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>58103</v>
+        <v>58128</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01235155063045158</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009285825369623099</v>
+        <v>0.009029289275804118</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01642018849767004</v>
+        <v>0.01642729705374679</v>
       </c>
     </row>
     <row r="17">
@@ -1510,19 +1510,19 @@
         <v>3494808</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3480411</v>
+        <v>3480386</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3505656</v>
+        <v>3506564</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9876484493695484</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9835798115023301</v>
+        <v>0.983572702946253</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.990714174630377</v>
+        <v>0.9909707107241958</v>
       </c>
     </row>
     <row r="18">
@@ -1690,19 +1690,19 @@
         <v>6788</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3001</v>
+        <v>2837</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14735</v>
+        <v>13420</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005389037173979662</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002382354636743389</v>
+        <v>0.002252263440683569</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01169859628656732</v>
+        <v>0.01065467697340752</v>
       </c>
     </row>
     <row r="5">
@@ -1719,19 +1719,19 @@
         <v>1252773</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1244826</v>
+        <v>1246141</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1256560</v>
+        <v>1256724</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9946109628260204</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9883014037134327</v>
+        <v>0.9893453230265928</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9976176453632567</v>
+        <v>0.9977477365593165</v>
       </c>
     </row>
     <row r="6">
@@ -1781,19 +1781,19 @@
         <v>6718</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2934</v>
+        <v>2843</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13657</v>
+        <v>14379</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.006675255368383871</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002915087259358385</v>
+        <v>0.0028248819012933</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01356876058023868</v>
+        <v>0.01428654603382227</v>
       </c>
     </row>
     <row r="8">
@@ -1810,19 +1810,19 @@
         <v>999757</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>992818</v>
+        <v>992096</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1003541</v>
+        <v>1003632</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9933247446316161</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9864312394197613</v>
+        <v>0.9857134539661773</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9970849127406415</v>
+        <v>0.9971751180987066</v>
       </c>
     </row>
     <row r="9">
@@ -1872,19 +1872,19 @@
         <v>2950</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8291</v>
+        <v>8623</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003825330190700852</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001194155913970592</v>
+        <v>0.001190104220432039</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01075258746992612</v>
+        <v>0.01118316636307849</v>
       </c>
     </row>
     <row r="11">
@@ -1901,19 +1901,19 @@
         <v>768109</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>762768</v>
+        <v>762436</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>770138</v>
+        <v>770141</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9961746698092991</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9892474125300746</v>
+        <v>0.9888168336369212</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9988058440860295</v>
+        <v>0.9988098957795679</v>
       </c>
     </row>
     <row r="12">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5467</v>
+        <v>3822</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.001920798070572061</v>
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01116476666070686</v>
+        <v>0.007805116302109541</v>
       </c>
     </row>
     <row r="14">
@@ -1992,7 +1992,7 @@
         <v>488757</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>484231</v>
+        <v>485876</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>489698</v>
@@ -2001,7 +2001,7 @@
         <v>0.9980792019294279</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9888352333392934</v>
+        <v>0.9921948836978904</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -2054,19 +2054,19 @@
         <v>17396</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10552</v>
+        <v>10778</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27081</v>
+        <v>27332</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004932658936860385</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002991881792571794</v>
+        <v>0.003056113590209491</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.007678637478182878</v>
+        <v>0.007749680223154335</v>
       </c>
     </row>
     <row r="17">
@@ -2083,19 +2083,19 @@
         <v>3509396</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3499711</v>
+        <v>3499460</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3516240</v>
+        <v>3516014</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9950673410631397</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.992321362521817</v>
+        <v>0.9922503197768456</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9970081182074282</v>
+        <v>0.9969438864097905</v>
       </c>
     </row>
     <row r="18">
@@ -2263,19 +2263,19 @@
         <v>22835</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15783</v>
+        <v>15103</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34754</v>
+        <v>34149</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03666397311557407</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02534180922667671</v>
+        <v>0.02424906188296861</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05580071682339733</v>
+        <v>0.05483007361873679</v>
       </c>
     </row>
     <row r="5">
@@ -2292,19 +2292,19 @@
         <v>599984</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>588065</v>
+        <v>588670</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>607036</v>
+        <v>607716</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9633360268844259</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9441992831766027</v>
+        <v>0.9451699263812631</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9746581907733234</v>
+        <v>0.9757509381170313</v>
       </c>
     </row>
     <row r="6">
@@ -2354,19 +2354,19 @@
         <v>19359</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11221</v>
+        <v>11804</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30849</v>
+        <v>30578</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.01743497601775333</v>
+        <v>0.01743497601775332</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01010539608635339</v>
+        <v>0.0106310642747106</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02778283992006357</v>
+        <v>0.02753936017998734</v>
       </c>
     </row>
     <row r="8">
@@ -2383,19 +2383,19 @@
         <v>1090994</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1079504</v>
+        <v>1079775</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1099132</v>
+        <v>1098549</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9825650239822469</v>
+        <v>0.9825650239822464</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9722171600799364</v>
+        <v>0.9724606398200126</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9898946039136466</v>
+        <v>0.9893689357252893</v>
       </c>
     </row>
     <row r="9">
@@ -2445,19 +2445,19 @@
         <v>26449</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17001</v>
+        <v>17242</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40542</v>
+        <v>42006</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02528189435266456</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01625073658247589</v>
+        <v>0.01648124710986498</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03875310986791387</v>
+        <v>0.04015234657771559</v>
       </c>
     </row>
     <row r="11">
@@ -2474,19 +2474,19 @@
         <v>1019714</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1005621</v>
+        <v>1004157</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1029162</v>
+        <v>1028921</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9747181056473354</v>
+        <v>0.9747181056473353</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9612468901320858</v>
+        <v>0.9598476534222842</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9837492634175234</v>
+        <v>0.983518752890135</v>
       </c>
     </row>
     <row r="12">
@@ -2536,19 +2536,19 @@
         <v>49015</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>35839</v>
+        <v>36062</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>66596</v>
+        <v>65436</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.05414458739645741</v>
+        <v>0.0541445873964574</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03958972316488861</v>
+        <v>0.03983532823579369</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07356439157576485</v>
+        <v>0.07228387324978865</v>
       </c>
     </row>
     <row r="14">
@@ -2565,19 +2565,19 @@
         <v>856254</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>838673</v>
+        <v>839833</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>869430</v>
+        <v>869207</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9458554126035426</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9264356084242351</v>
+        <v>0.9277161267502113</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9604102768351112</v>
+        <v>0.9601646717642063</v>
       </c>
     </row>
     <row r="15">
@@ -2627,19 +2627,19 @@
         <v>117658</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>97064</v>
+        <v>95740</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>140557</v>
+        <v>142389</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.03193243650209268</v>
+        <v>0.0319324365020927</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02634302641861817</v>
+        <v>0.02598373309153187</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0381471941395528</v>
+        <v>0.03864436886929074</v>
       </c>
     </row>
     <row r="17">
@@ -2656,19 +2656,19 @@
         <v>3566947</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3544048</v>
+        <v>3542216</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3587541</v>
+        <v>3588865</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9680675634979072</v>
+        <v>0.9680675634979073</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9618528058604473</v>
+        <v>0.961355631130709</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9736569735813817</v>
+        <v>0.974016266908468</v>
       </c>
     </row>
     <row r="18">
